--- a/xl/dashboard/dashboard.5.xlsx
+++ b/xl/dashboard/dashboard.5.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\shared\projects\polylab\xl\dashboard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="12495" windowHeight="7785" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="12495" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="15" r:id="rId1"/>
@@ -14,12 +19,12 @@
   <definedNames>
     <definedName name="query">SUMMARY!$D$7</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -48,9 +53,6 @@
     <t>ot_cost_m</t>
   </si>
   <si>
-    <t>by rez.appdev</t>
-  </si>
-  <si>
     <t>BASIC DASHBOARD v0.1</t>
   </si>
   <si>
@@ -66,9 +68,6 @@
     <t>hse_incidents</t>
   </si>
   <si>
-    <t>saudization</t>
-  </si>
-  <si>
     <t>kpi_id</t>
   </si>
   <si>
@@ -132,9 +131,6 @@
     <t>min(accidents)</t>
   </si>
   <si>
-    <t>max(saudization)</t>
-  </si>
-  <si>
     <t>profit_employee</t>
   </si>
   <si>
@@ -157,17 +153,23 @@
   </si>
   <si>
     <t>-&gt;</t>
+  </si>
+  <si>
+    <t>localization</t>
+  </si>
+  <si>
+    <t>max(localization)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,9 +485,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,6 +508,9 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -539,12 +541,106 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
         </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color rgb="FFC0C0C0"/>
         </right>
@@ -573,8 +669,31 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
         </left>
@@ -605,286 +724,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -915,7 +755,7 @@
           <bgColor rgb="FFEAEAEA"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -943,7 +783,70 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -977,7 +880,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1012,7 +915,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1047,7 +950,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1079,7 +982,106 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1112,7 +1114,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1144,7 +1146,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1197,7 +1199,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1228,7 +1230,7 @@
           <bgColor rgb="FFEAEAEA"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1242,18 +1244,37 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1278,19 +1299,19 @@
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42803</c:v>
+                  <c:v>42683</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42983</c:v>
+                  <c:v>42863</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43163</c:v>
+                  <c:v>43043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43343</c:v>
+                  <c:v>43223</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43523</c:v>
+                  <c:v>43403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,25 +1323,39 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55000</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60000</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65000</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70000</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C15-4458-816F-1B13B3CD4A91}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="116064640"/>
         <c:axId val="116066560"/>
       </c:lineChart>
@@ -1329,22 +1364,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116066560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="116066560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116064640"/>
         <c:crosses val="autoZero"/>
@@ -1352,6 +1394,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1383,7 +1427,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1408,28 +1458,28 @@
     <tableColumn id="2" name="timestamp" dataDxfId="20"/>
     <tableColumn id="3" name="name" dataDxfId="19"/>
     <tableColumn id="11" name="category" dataDxfId="18"/>
-    <tableColumn id="10" name="type" dataDxfId="2"/>
-    <tableColumn id="12" name="mode" dataDxfId="0"/>
-    <tableColumn id="13" name="unit" dataDxfId="1"/>
-    <tableColumn id="14" name="action" dataDxfId="17"/>
-    <tableColumn id="4" name="hurdle" dataDxfId="16"/>
-    <tableColumn id="5" name="target" dataDxfId="15"/>
-    <tableColumn id="7" name="stretch" dataDxfId="4"/>
-    <tableColumn id="6" name="description" dataDxfId="3"/>
+    <tableColumn id="10" name="type" dataDxfId="17"/>
+    <tableColumn id="12" name="mode" dataDxfId="16"/>
+    <tableColumn id="13" name="unit" dataDxfId="15"/>
+    <tableColumn id="14" name="action" dataDxfId="14"/>
+    <tableColumn id="4" name="hurdle" dataDxfId="13"/>
+    <tableColumn id="5" name="target" dataDxfId="12"/>
+    <tableColumn id="7" name="stretch" dataDxfId="11"/>
+    <tableColumn id="6" name="description" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="logTable" displayName="logTable" ref="A1:E31" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="logTable" displayName="logTable" ref="A1:E31" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E31"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="id" dataDxfId="9"/>
-    <tableColumn id="3" name="kpi_id" dataDxfId="8"/>
-    <tableColumn id="2" name="timestamp" dataDxfId="7"/>
-    <tableColumn id="4" name="kpi_name" dataDxfId="6"/>
-    <tableColumn id="5" name="kpi_value" dataDxfId="5"/>
+    <tableColumn id="1" name="id" dataDxfId="4"/>
+    <tableColumn id="3" name="kpi_id" dataDxfId="3"/>
+    <tableColumn id="2" name="timestamp" dataDxfId="2"/>
+    <tableColumn id="4" name="kpi_name" dataDxfId="1"/>
+    <tableColumn id="5" name="kpi_value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1478,7 +1528,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1510,9 +1560,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1544,6 +1612,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1719,45 +1805,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="23">
+        <v>9</v>
+      </c>
+      <c r="H1" s="31">
         <f ca="1">NOW()</f>
-        <v>42620.806887384257</v>
-      </c>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>43291.004407175926</v>
+      </c>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="14"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1770,136 +1854,136 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
+        <v>8</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C21" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="C22" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C22" s="28">
         <f t="array" ref="C22">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!1:1))-1, MATCH(C$21, logTable[#Headers],0)), "")</f>
-        <v>42803</v>
-      </c>
-      <c r="D22" s="28">
+        <v>42683</v>
+      </c>
+      <c r="D22" s="27">
         <f t="array" ref="D22">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!1:1))-1, MATCH(D$21, logTable[#Headers],0)), "")</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="C23" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C23" s="28">
         <f t="array" ref="C23">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!2:2))-1, MATCH(C$21, logTable[#Headers],0)), "")</f>
-        <v>42983</v>
-      </c>
-      <c r="D23" s="28">
+        <v>42863</v>
+      </c>
+      <c r="D23" s="27">
         <f t="array" ref="D23">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!2:2))-1, MATCH(D$21, logTable[#Headers],0)), "")</f>
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="C24" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C24" s="28">
         <f t="array" ref="C24">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!3:3))-1, MATCH(C$21, logTable[#Headers],0)), "")</f>
-        <v>43163</v>
-      </c>
-      <c r="D24" s="28">
+        <v>43043</v>
+      </c>
+      <c r="D24" s="27">
         <f t="array" ref="D24">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!3:3))-1, MATCH(D$21, logTable[#Headers],0)), "")</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="C25" s="29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C25" s="28">
         <f t="array" ref="C25">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!4:4))-1, MATCH(C$21, logTable[#Headers],0)), "")</f>
-        <v>43343</v>
-      </c>
-      <c r="D25" s="28">
+        <v>43223</v>
+      </c>
+      <c r="D25" s="27">
         <f t="array" ref="D25">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!4:4))-1, MATCH(D$21, logTable[#Headers],0)), "")</f>
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="C26" s="29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="28">
         <f t="array" ref="C26">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!5:5))-1, MATCH(C$21, logTable[#Headers],0)), "")</f>
-        <v>43523</v>
-      </c>
-      <c r="D26" s="28">
+        <v>43403</v>
+      </c>
+      <c r="D26" s="27">
         <f t="array" ref="D26">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!5:5))-1, MATCH(D$21, logTable[#Headers],0)), "")</f>
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="C27" s="29" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C27" s="28" t="str">
         <f t="array" ref="C27">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!6:6))-1, MATCH(C$21, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D27" s="28" t="str">
+      <c r="D27" s="27" t="str">
         <f t="array" ref="D27">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!6:6))-1, MATCH(D$21, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:4">
-      <c r="C28" s="29" t="str">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C28" s="28" t="str">
         <f t="array" ref="C28">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!7:7))-1, MATCH(C$21, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D28" s="28" t="str">
+      <c r="D28" s="27" t="str">
         <f t="array" ref="D28">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!7:7))-1, MATCH(D$21, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="C29" s="29" t="str">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C29" s="28" t="str">
         <f t="array" ref="C29">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!8:8))-1, MATCH(C$21, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D29" s="28" t="str">
+      <c r="D29" s="27" t="str">
         <f t="array" ref="D29">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!8:8))-1, MATCH(D$21, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:4">
-      <c r="C30" s="29" t="str">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C30" s="28" t="str">
         <f t="array" ref="C30">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!9:9))-1, MATCH(C$21, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D30" s="28" t="str">
+      <c r="D30" s="27" t="str">
         <f t="array" ref="D30">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!9:9))-1, MATCH(D$21, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:4">
-      <c r="C31" s="29" t="str">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C31" s="28" t="str">
         <f t="array" ref="C31">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!10:10))-1, MATCH(C$21, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D31" s="28" t="str">
+      <c r="D31" s="27" t="str">
         <f t="array" ref="D31">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!10:10))-1, MATCH(D$21, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:4">
-      <c r="C32" s="29" t="str">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C32" s="28" t="str">
         <f t="array" ref="C32">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!11:11))-1, MATCH(C$21, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D32" s="28" t="str">
+      <c r="D32" s="27" t="str">
         <f t="array" ref="D32">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(log!11:11))-1, MATCH(D$21, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
@@ -1920,34 +2004,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.73046875" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="6.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
@@ -1959,28 +2043,28 @@
         <v>3</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1988,22 +2072,22 @@
         <v>42653</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I2" s="15">
         <v>200</v>
@@ -2014,11 +2098,11 @@
       <c r="K2" s="15">
         <v>130</v>
       </c>
-      <c r="L2" s="31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2030,19 +2114,19 @@
         <v>8</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="H3" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I3" s="15">
         <v>150000</v>
@@ -2053,11 +2137,11 @@
       <c r="K3" s="15">
         <v>150000</v>
       </c>
-      <c r="L3" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2066,22 +2150,22 @@
         <v>42713</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I4" s="19">
         <v>0.75</v>
@@ -2092,11 +2176,11 @@
       <c r="K4" s="19">
         <v>0.85</v>
       </c>
-      <c r="L4" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2105,22 +2189,22 @@
         <v>42743</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I5" s="15">
         <v>100</v>
@@ -2131,11 +2215,11 @@
       <c r="K5" s="15">
         <v>100</v>
       </c>
-      <c r="L5" s="31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2144,22 +2228,22 @@
         <v>42773</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I6" s="19">
         <v>0.35</v>
@@ -2172,11 +2256,11 @@
         <f>kpiTable[[#This Row],[target]]+0.1</f>
         <v>0.54999999999999993</v>
       </c>
-      <c r="L6" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2185,22 +2269,22 @@
         <v>42803</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="I7" s="19">
         <v>0.35</v>
@@ -2213,8 +2297,8 @@
         <f>kpiTable[[#This Row],[target]]+0.1</f>
         <v>0.54999999999999993</v>
       </c>
-      <c r="L7" s="31" t="s">
-        <v>41</v>
+      <c r="L7" s="30" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2235,41 +2319,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -2280,13 +2364,13 @@
         <v>42653</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2304,7 +2388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2316,13 +2400,13 @@
         <v>42713</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="21">
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2334,13 +2418,13 @@
         <v>42743</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="20">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2352,13 +2436,13 @@
         <v>42773</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E6" s="21">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -2370,13 +2454,13 @@
         <v>42803</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" s="20">
         <v>50000</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -2388,14 +2472,14 @@
         <v>42833</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="15">
         <f>E2+10</f>
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -2414,7 +2498,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -2426,14 +2510,14 @@
         <v>42893</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="16">
         <f>E4+0.05</f>
         <v>0.65</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -2445,14 +2529,14 @@
         <v>42923</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="15">
         <f>E5-2</f>
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -2464,14 +2548,14 @@
         <v>42953</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E12" s="16">
         <f>E6+0.01</f>
         <v>0.31</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -2483,14 +2567,14 @@
         <v>42983</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E13" s="15">
         <f>E7+5000</f>
         <v>55000</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -2502,14 +2586,14 @@
         <v>43013</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="15">
         <f>E8+10</f>
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -2528,7 +2612,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -2540,14 +2624,14 @@
         <v>43073</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="16">
         <f>E10+0.05</f>
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -2559,14 +2643,14 @@
         <v>43103</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="15">
         <f>E11-2</f>
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -2578,14 +2662,14 @@
         <v>43133</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E18" s="16">
         <f>E12+0.01</f>
         <v>0.32</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -2597,14 +2681,14 @@
         <v>43163</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E19" s="15">
         <f>E13+5000</f>
         <v>60000</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -2616,14 +2700,14 @@
         <v>43193</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="15">
         <f>E14+10</f>
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -2642,7 +2726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -2654,14 +2738,14 @@
         <v>43253</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="16">
         <f>E16+0.05</f>
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -2673,14 +2757,14 @@
         <v>43283</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="15">
         <f>E17-2</f>
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -2692,14 +2776,14 @@
         <v>43313</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E24" s="16">
         <f>E18+0.01</f>
         <v>0.33</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -2711,14 +2795,14 @@
         <v>43343</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E25" s="15">
         <f>E19+5000</f>
         <v>65000</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -2730,14 +2814,14 @@
         <v>43373</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="15">
         <f>E20+10</f>
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -2756,7 +2840,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -2768,14 +2852,14 @@
         <v>43433</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="16">
         <f>E22+0.05</f>
         <v>0.80000000000000016</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -2787,14 +2871,14 @@
         <v>43463</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="15">
         <f>E23-2</f>
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -2806,14 +2890,14 @@
         <v>43493</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E30" s="16">
         <f>E24+0.01</f>
         <v>0.34</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -2825,7 +2909,7 @@
         <v>43523</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E31" s="15">
         <f>E25+5000</f>
